--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Лице</t>
   </si>
@@ -22,18 +22,6 @@
     <t>Ставка</t>
   </si>
   <si>
-    <t>Иван Евгениев</t>
-  </si>
-  <si>
-    <t>Димитър Чаръкчиев</t>
-  </si>
-  <si>
-    <t>Емануил Марков</t>
-  </si>
-  <si>
-    <t>Веселин Георгиев</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -67,9 +55,6 @@
     <t>Лицензи</t>
   </si>
   <si>
-    <t>QA - 200 часа</t>
-  </si>
-  <si>
     <t>Д.Ч.</t>
   </si>
   <si>
@@ -86,6 +71,57 @@
   </si>
   <si>
     <t>Хранилище за данни за 1 год.</t>
+  </si>
+  <si>
+    <t>QA -100 часа</t>
+  </si>
+  <si>
+    <t>Общо външни разходи</t>
+  </si>
+  <si>
+    <t>Среща на място за уточняване на заданието</t>
+  </si>
+  <si>
+    <t>Среща на място за уточняване на заданието и сключване на договор</t>
+  </si>
+  <si>
+    <t>Работа по заданието - произведена нова верися на документа.</t>
+  </si>
+  <si>
+    <t>Обсъждане на заданието</t>
+  </si>
+  <si>
+    <t>Emo</t>
+  </si>
+  <si>
+    <t>Проектиране на база данни</t>
+  </si>
+  <si>
+    <t>Проектиране на база данни. Съставяне на основа на проект</t>
+  </si>
+  <si>
+    <t>Реализирана Login функционалност</t>
+  </si>
+  <si>
+    <t>Добавена възможност в цялото приложение да се преминава към следващ елемент от потребителския интерфейс с натискане на Enter (не само с Tab)</t>
+  </si>
+  <si>
+    <t>Среща на място за уточняване на бизнес процеса по генериране на графици</t>
+  </si>
+  <si>
+    <t>Вътрешно обсъждане и уточняване на заданието</t>
+  </si>
+  <si>
+    <t>Реализирана номенклатура линейки</t>
+  </si>
+  <si>
+    <t>Реализирана номенклатура типове длъжности, длъжности в организацията, изчистена бизнес логиката на приложението с оглед автоматизирано поставяне на потребителски идентификатор и времеви маркер за всеки запис в базата данни. Настроено прихващането на грешки при дублиране на запис в номенклатура.</t>
+  </si>
+  <si>
+    <t>Настроена базата данни по всички номенклатурни таблици да има защита от дублиране</t>
+  </si>
+  <si>
+    <t>Работа по изграждането на дървовидната структура на организацията</t>
   </si>
 </sst>
 </file>
@@ -134,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -142,51 +178,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,24 +511,24 @@
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -538,70 +537,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>12.201499999999999</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>2000</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>12.201499999999999</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>2000</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1.2016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -610,90 +597,85 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
       <c r="H4">
         <v>2400</v>
       </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4">
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1.2016</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1.2016</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>200</v>
       </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1.2016</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>300</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1.2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1.2016</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>5600</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>42380</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -701,19 +683,461 @@
       <c r="D8">
         <v>150</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42384</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6">
-        <f>SUM(D2:D9)</f>
-        <v>1150</v>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42391</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42392</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3">
+        <f>SUM(D2:D28)</f>
+        <v>2875</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Лице</t>
   </si>
   <si>
-    <t>Ставка</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -122,6 +119,63 @@
   </si>
   <si>
     <t>Работа по изграждането на дървовидната структура на организацията</t>
+  </si>
+  <si>
+    <t>Завършени длъжности в организацията</t>
+  </si>
+  <si>
+    <t>Завършена дървоводната структура</t>
+  </si>
+  <si>
+    <t>Прихванати ситуации при изтриване на обекти - издава подходящо съобщение за грешка, когато изтриването е недопустимо.</t>
+  </si>
+  <si>
+    <t>Контекстни менюта в структрата на организацията за разместване на дървиводната структура и за разместване на реда на длъжностите в структурата.</t>
+  </si>
+  <si>
+    <t>Реализиран прозореца за визуализация на картотеката и заявките за избор на лица</t>
+  </si>
+  <si>
+    <t>Доработени длъжности, звена и длъжности в организацията да имат дата на валидност</t>
+  </si>
+  <si>
+    <t>Проектирани класификатори по НКПД и ЕКАТТЕ с автоматичен импорт. Реализация - за HR модула, ако има такъв.</t>
+  </si>
+  <si>
+    <t>Работа по реализацията на прозореца за висуализация и редакция на лични данни и данни за назначения.</t>
+  </si>
+  <si>
+    <t>Проучване на начини за реализация на одит лог</t>
+  </si>
+  <si>
+    <t>Реализация на одит лог</t>
+  </si>
+  <si>
+    <t>Проектиране на функционалност за екипи, членове на екипи, коли на екипи, всички различни видове графици (дневен, месечен, шестмесечен, присъствена форма)</t>
+  </si>
+  <si>
+    <t>Проектиране на потребителски контроли за прозорците на досието</t>
+  </si>
+  <si>
+    <t>Изчистване на проблеми в архитектурата бизнес логиката</t>
+  </si>
+  <si>
+    <t>Изчистване на проблеми в архитектурата на базата данни</t>
+  </si>
+  <si>
+    <t>Въвеждане на структурата на организацията</t>
+  </si>
+  <si>
+    <t>Изчистване на проблеми в архитектурата бизнес логиката - приключени</t>
+  </si>
+  <si>
+    <t>Импорт на данни за длъжностите в организацията</t>
+  </si>
+  <si>
+    <t>Импорт на данни за длъжностите в структурата на организацията</t>
+  </si>
+  <si>
+    <t>Подготовка на данните от щатното разписание за импорт</t>
   </si>
 </sst>
 </file>
@@ -494,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,38 +565,32 @@
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>12.201499999999999</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -551,21 +599,21 @@
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>12.201499999999999</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -574,21 +622,21 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.2016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -597,21 +645,21 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.2016</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -620,21 +668,21 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.2016</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -643,15 +691,15 @@
         <v>300</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.2016</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -660,22 +708,22 @@
         <v>300</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <f>SUM(H2:H6)</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42380</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -684,15 +732,15 @@
         <v>150</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42381</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -701,15 +749,15 @@
         <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42381</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -718,15 +766,15 @@
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -735,15 +783,15 @@
         <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42384</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -752,15 +800,15 @@
         <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42387</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -769,15 +817,15 @@
         <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42387</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -786,15 +834,15 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42387</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -803,24 +851,24 @@
         <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42388</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -828,7 +876,7 @@
         <v>42389</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -837,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,7 +893,7 @@
         <v>42389</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -854,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -862,7 +910,7 @@
         <v>42389</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>0.5</v>
@@ -871,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -879,7 +927,7 @@
         <v>42390</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -888,7 +936,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -896,7 +944,7 @@
         <v>42390</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -905,7 +953,7 @@
         <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +961,7 @@
         <v>42390</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -922,7 +970,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,7 +978,7 @@
         <v>42390</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -939,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,7 +995,7 @@
         <v>42391</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -956,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -964,7 +1012,7 @@
         <v>42392</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -973,7 +1021,7 @@
         <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -981,7 +1029,7 @@
         <v>42393</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -990,7 +1038,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -998,7 +1046,7 @@
         <v>42393</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -1007,137 +1055,411 @@
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="1">
+        <v>42411</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A37" s="1">
+        <v>42412</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42412</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>300</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42416</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42417</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A42" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3">
-        <f>SUM(D2:D28)</f>
-        <v>2875</v>
+      <c r="A44" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42419</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3">
+        <f>SUM(D2:D46)</f>
+        <v>4175</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Лице</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Подготовка на данните от щатното разписание за импорт</t>
+  </si>
+  <si>
+    <t>Програма за импорт на данните от щатно разписание</t>
+  </si>
+  <si>
+    <t>Импорт на данните от щатните разписания</t>
+  </si>
+  <si>
+    <t>Реализация на частта от досието за въвеждане и редакция на лични данни</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +253,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +575,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="48.140625" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -585,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>12.201499999999999</v>
       </c>
@@ -607,13 +621,28 @@
       <c r="H2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>12.201499999999999</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>12.201499999999999</v>
+        <v>1.2016</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -622,7 +651,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -630,22 +659,37 @@
       <c r="H3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="J3" s="2">
         <v>1.2016</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42380</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -653,13 +697,28 @@
       <c r="H4">
         <v>2400</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="J4" s="2">
         <v>1.2016</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>300</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42381</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -668,7 +727,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -676,39 +735,69 @@
       <c r="H5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="J5" s="2">
         <v>1.2016</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>300</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42387</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1.2016</v>
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>42381</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42387</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -717,27 +806,57 @@
         <f>SUM(H2:H6)</f>
         <v>5600</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>42383</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42380</v>
+        <v>42388</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>150</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>42384</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>200</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42381</v>
+        <v>42389</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -749,117 +868,162 @@
         <v>100</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>42387</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42381</v>
+        <v>42389</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1">
+        <v>42390</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="N10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42383</v>
+        <v>42389</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1">
+        <v>42390</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42384</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42391</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42392</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
         <v>200</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42387</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>200</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42387</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42387</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>50</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42388</v>
+        <v>42393</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -868,12 +1032,12 @@
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42389</v>
+        <v>42393</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -885,15 +1049,15 @@
         <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42389</v>
+        <v>42394</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -902,134 +1066,134 @@
         <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42389</v>
+        <v>42395</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42390</v>
+        <v>42396</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
         <v>100</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42390</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>100</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42390</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42390</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42391</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42392</v>
+        <v>42407</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42393</v>
+        <v>42411</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1038,12 +1202,12 @@
         <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42393</v>
+        <v>42412</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1055,29 +1219,29 @@
         <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42394</v>
+        <v>42412</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42395</v>
+        <v>42416</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1089,15 +1253,15 @@
         <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42396</v>
+        <v>42417</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1106,12 +1270,12 @@
         <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42396</v>
+        <v>42418</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -1123,12 +1287,12 @@
         <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42406</v>
+        <v>42418</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -1140,12 +1304,12 @@
         <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42406</v>
+        <v>42418</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1157,66 +1321,66 @@
         <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42407</v>
+        <v>42418</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="2">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>25</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42419</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>42407</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42411</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42420</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>50</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>42412</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -1225,29 +1389,29 @@
         <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42412</v>
+        <v>42421</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42416</v>
+        <v>42423</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1259,207 +1423,67 @@
         <v>50</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42417</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>50</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>42418</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>50</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42418</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>50</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42418</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42418</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="2">
-        <v>25</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42418</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="2">
-        <v>25</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>42419</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3">
-        <f>SUM(D2:D46)</f>
-        <v>4175</v>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3">
+        <f>SUM(D2:D39)</f>
+        <v>3125</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>Лице</t>
   </si>
@@ -185,6 +185,93 @@
   </si>
   <si>
     <t>Реализация на частта от досието за въвеждане и редакция на лични данни</t>
+  </si>
+  <si>
+    <t>Реализация на универсален метод за попълване на комбобоксове.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа по прозореца с назначенията - готов потребителски интерфейс. </t>
+  </si>
+  <si>
+    <t>Логика за запазване и обновяване на интерфейса за назначенията. Добавени и попълнени допълнителни номенклатури</t>
+  </si>
+  <si>
+    <t>Реализиран прозореца за работни дни през годината</t>
+  </si>
+  <si>
+    <t>Разработен универсален метод за получаване на списък с активни или всички обекти от номенклатура</t>
+  </si>
+  <si>
+    <t>Номенклатура видове линейки и разширение на номенклатурата за линейки</t>
+  </si>
+  <si>
+    <t>Видове договори и видове правоотношения</t>
+  </si>
+  <si>
+    <t>Шофьори и линейки</t>
+  </si>
+  <si>
+    <t>Обсъждане на формата на ексела за сменната форма</t>
+  </si>
+  <si>
+    <t>Оправяне на проблем при редакция на звено в структурата на организацията и оправяне на проблем при редакция на работни и неработни дни в годината.</t>
+  </si>
+  <si>
+    <t>Дизайн на прозореца за редакция на екип</t>
+  </si>
+  <si>
+    <t>Добавено отбелязване на националните празници</t>
+  </si>
+  <si>
+    <t>Логика за попълване на модела за редакция на екип</t>
+  </si>
+  <si>
+    <t>Логика за попълване на комбобоксовете за членове на екипа и линейките</t>
+  </si>
+  <si>
+    <t>Редакция на различни места в кода, за съвместване на дребните промени свързани с изграждането на екипите</t>
+  </si>
+  <si>
+    <t>Тест на функционалността за екипите</t>
+  </si>
+  <si>
+    <t>Добавено работно време за линейките</t>
+  </si>
+  <si>
+    <t>Логика за попълване на модела за разглеждане на екипите</t>
+  </si>
+  <si>
+    <t>Подобряване на производителсността на селектирането на екипите</t>
+  </si>
+  <si>
+    <t>Подготовка на файлове и инструкции за съставяне на тест план.</t>
+  </si>
+  <si>
+    <t>При преместване на човек от екип в екип старата  му позиция се изтрива</t>
+  </si>
+  <si>
+    <t>Импортиране на данни за линейки</t>
+  </si>
+  <si>
+    <t>Импорт на лични данни (най-вано - работното време)</t>
+  </si>
+  <si>
+    <t>Обучение Боро</t>
+  </si>
+  <si>
+    <t>Въвеждане на 30 екипа</t>
+  </si>
+  <si>
+    <t>Добавен брой смени в звено</t>
+  </si>
+  <si>
+    <t>Създадена функционалност за временни екипи.</t>
+  </si>
+  <si>
+    <t>Създадена визуализация за графиците по смени и екипи. Създаден дизайн на личните графици.</t>
+  </si>
+  <si>
+    <t>Създадена таблицата в базата данни за графиците</t>
   </si>
 </sst>
 </file>
@@ -561,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,64 +1513,491 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42424</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>150</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42425</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>150</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42426</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>150</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42426</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>50</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42427</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>50</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42427</v>
+      </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>42427</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+      <c r="C46" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42427</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42431</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>50</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>50</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>25</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>50</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>25</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>25</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>25</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42437</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>50</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42438</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42436</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3">
-        <f>SUM(D2:D39)</f>
-        <v>3125</v>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3">
+        <f>SUM(D2:D68)</f>
+        <v>4750</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>Лице</t>
   </si>
@@ -272,6 +272,45 @@
   </si>
   <si>
     <t>Създадена таблицата в базата данни за графиците</t>
+  </si>
+  <si>
+    <t>Реализиран интерфейс за отпуски на служител, и полагаем годишен отпуск.</t>
+  </si>
+  <si>
+    <t>Добавени годишни отпуски за всички служители.</t>
+  </si>
+  <si>
+    <t>Проектиране на визуализациите на видовете графици, номенклатура на видовете графици и генерация на графиците</t>
+  </si>
+  <si>
+    <t>Реализация на номенклатура за видове графици</t>
+  </si>
+  <si>
+    <t>Реализация на визуализацията на екипи съчетани с графици, филтър по дата и по вид график</t>
+  </si>
+  <si>
+    <t>Реализация на нова логика за бързо визуализиране на графиците и екипите в организацията</t>
+  </si>
+  <si>
+    <t>Реализация на нов потребителски интерфейс за бързо визуализиране на графиците и екипите в организацията.</t>
+  </si>
+  <si>
+    <t>Добавени полетата ТРЗ код и Графици код</t>
+  </si>
+  <si>
+    <t>Довършено генерирането на графици с правилна формула</t>
+  </si>
+  <si>
+    <t>Реализация на потребителски интерфейс за генериране на графиците. Тестване на логиката на генерираенто, чистене на проблеми, разписана логика за запаметяване на графици.</t>
+  </si>
+  <si>
+    <t>Реализация на логиката за генериране на графици, вмъкване на отпуските в графиците</t>
+  </si>
+  <si>
+    <t>Добавено описание на редовете въф формата за работни дни през месеца.</t>
+  </si>
+  <si>
+    <t>Генерация на графици.</t>
   </si>
 </sst>
 </file>
@@ -648,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -1954,50 +1993,252 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42443</v>
+      </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>150</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>42443</v>
+      </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="C70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42444</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>50</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>42444</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>25</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42444</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
+      <c r="C73" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D73" s="2">
+        <v>75</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42445</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>200</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42446</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>150</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42447</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>25</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42447</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42447</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42448</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42448</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42450</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>200</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="3">
-        <f>SUM(D2:D68)</f>
-        <v>4750</v>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3">
+        <f>SUM(D2:D81)</f>
+        <v>5950</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>Лице</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>Генерация на графици.</t>
+  </si>
+  <si>
+    <t>Внедряване и доработки на място</t>
+  </si>
+  <si>
+    <t>Разработка на потребителски интерфейс за отразяване на личен график и присъствена форма. Отваряне на досието от прозореца графици и оцветяване на колоните за неработни дни.</t>
+  </si>
+  <si>
+    <t>Корекции по функционалността за редакция на екипи</t>
+  </si>
+  <si>
+    <t>Корекции по различни функционалности, задаване на работно време и списък от слъжности за вяско от сменните звена.</t>
   </si>
 </sst>
 </file>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,32 +2201,64 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>42450</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="C82" s="2">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2">
+        <v>200</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42451</v>
+      </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>100</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42452</v>
+      </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="C84" s="2">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2">
+        <v>200</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42453</v>
+      </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="C85" s="2">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2">
+        <v>300</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -2230,15 +2274,57 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="3">
-        <f>SUM(D2:D81)</f>
-        <v>5950</v>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3">
+        <f>SUM(D2:D85)</f>
+        <v>6750</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>Лице</t>
   </si>
@@ -323,13 +324,58 @@
   </si>
   <si>
     <t>Корекции по различни функционалности, задаване на работно време и списък от слъжности за вяско от сменните звена.</t>
+  </si>
+  <si>
+    <t>Разпечатка на график за отделно звено</t>
+  </si>
+  <si>
+    <t>Генерация на график за отделно звено</t>
+  </si>
+  <si>
+    <t>Редакция на експорта, според потребителските изисквания</t>
+  </si>
+  <si>
+    <t>Редакция на схемата за калкулация на часове отсъствия.</t>
+  </si>
+  <si>
+    <t>Анализ с телефонен разговор на натрупаните бележки.</t>
+  </si>
+  <si>
+    <t>Корекции при генерирането на отсъствия в графика.</t>
+  </si>
+  <si>
+    <t>Утвърждаване на месечен график по звено</t>
+  </si>
+  <si>
+    <t>Работа по експорта на дневни графици</t>
+  </si>
+  <si>
+    <t>Добавен вид екип трупен</t>
+  </si>
+  <si>
+    <t>Обучение Мира и дистанционна поддръжка.</t>
+  </si>
+  <si>
+    <t>Мариана - дистанционна поддръжка</t>
+  </si>
+  <si>
+    <t>Временните графици показват само смените за съответната дата.</t>
+  </si>
+  <si>
+    <t>Форматиране на шаблона за дневни графици.</t>
+  </si>
+  <si>
+    <t>Тест на правилния експорт на дневни графици</t>
+  </si>
+  <si>
+    <t>разработка на логиката за експорт на дневни екипи и резерви</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +408,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -379,11 +432,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +471,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,10 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,75 +2345,408 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42455</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>50</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42457</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>50</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>42457</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>50</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>42458</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>50</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42458</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>50</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42458</v>
+      </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
+        <v>50</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>42459</v>
+      </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>50</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>42459</v>
+      </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
+      <c r="C93" s="2">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2">
+        <v>150</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42459</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>42459</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>42459</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>25</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42459</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="2">
+        <v>25</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>25</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="2">
+        <v>25</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2">
+        <v>5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>250</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="3">
-        <f>SUM(D2:D85)</f>
-        <v>6750</v>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="3">
+        <f>SUM(D2:D100)</f>
+        <v>7650</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>5760000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <f>SUM(A1:A12)</f>
+        <v>34460000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="120">
   <si>
     <t>Лице</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>разработка на логиката за експорт на дневни екипи и резерви</t>
+  </si>
+  <si>
+    <t>Разработена номенклатура за часови пояси към работното време.</t>
+  </si>
+  <si>
+    <t>Добавено въвеждането на часове на работното време към назначението.</t>
   </si>
 </sst>
 </file>
@@ -786,8 +792,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,19 +2576,35 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>42461</v>
+      </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="C101" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>25</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>42461</v>
+      </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="C102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>25</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
@@ -2654,8 +2676,8 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="3">
-        <f>SUM(D2:D100)</f>
-        <v>7650</v>
+        <f>SUM(D2:D102)</f>
+        <v>7700</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ProjectExpenses.xlsx
+++ b/Documents/ProjectExpenses.xlsx
@@ -792,8 +792,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
